--- a/medicine/Enfance/Marthe_Fiel/Marthe_Fiel.xlsx
+++ b/medicine/Enfance/Marthe_Fiel/Marthe_Fiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marthe Fiel, née à Reims le 2 mai 1873 et morte le 2 novembre 1949 à Meulan, est un écrivain de romans sentimentaux et de romans pour la jeunesse parus notamment dans la collection Lisette. Elle a écrit une nouvelle, Heures d'angoisse, et une comédie en vers, Le Droit d'aimer[1], sous le pseudonyme de Claude Grey.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marthe Fiel, née à Reims le 2 mai 1873 et morte le 2 novembre 1949 à Meulan, est un écrivain de romans sentimentaux et de romans pour la jeunesse parus notamment dans la collection Lisette. Elle a écrit une nouvelle, Heures d'angoisse, et une comédie en vers, Le Droit d'aimer, sous le pseudonyme de Claude Grey.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1907 : premier prix d'honneur du Grand concours colonial pour la composition Mariage mauresque
 1930 : prix du Club des bonnes langues pour le roman Hors du sillon</t>
@@ -542,7 +556,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chante ! ô jeunesse ! (poèmes), 1906
 Le Droit d'aimer, comédie en 1 acte, en vers, 1907, éditions de la "Pensée moderne"
